--- a/BSM/omega.xlsx
+++ b/BSM/omega.xlsx
@@ -818,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV26"/>
+  <dimension ref="A1:EV42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12654,6 +12654,7302 @@
         <v>0.077096</v>
       </c>
     </row>
+    <row r="27" spans="1:152">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R27" t="n">
+        <v>225</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.98023187</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0129272285</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0197630556</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0009207994279999999</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.36625332</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0375182361</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.935656894</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.0436592505</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.596228444</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.00675180694</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.16359514</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>4.14443878e-05</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.00385226043</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>225</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>46268.01</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0.11096</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0.057881</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0.014782</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0.035971</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0.035971</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0.035954</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0.100592</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0.102425</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0.102424</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0.022097</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0.022097</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0.022097</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0.116299</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0.116297</v>
+      </c>
+      <c r="CL27" t="s"/>
+      <c r="CM27" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>79.6688193</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS27" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX27" t="n">
+        <v>0.554187321</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>0.0261429278</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>0.0881430773</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0.000222729382</v>
+      </c>
+      <c r="EB27" t="n">
+        <v>0.00283090202</v>
+      </c>
+      <c r="EC27" t="n">
+        <v>0.000206905111</v>
+      </c>
+      <c r="ED27" t="n">
+        <v>0.064290925</v>
+      </c>
+      <c r="EE27" t="n">
+        <v>0.24077309</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>0.0232014324</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER27" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="ES27" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET27" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU27" t="n">
+        <v>0.012129</v>
+      </c>
+      <c r="EV27" t="n">
+        <v>0.07935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:152">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R28" t="n">
+        <v>230</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.980232238</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0129268602</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0197630787</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0009207763099999999</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.366254334</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0375157771</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.935657991</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.0436581537</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.596229889</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.00675180943</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.163588108</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.97850384e-05</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.00385225073</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>230</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>48488.04</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>0.110794</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>0.057871</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0.014598</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0.035841</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>0.035841</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>0.035825</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>0.100465</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0.102293</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.102292</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0.021996</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>0.021996</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0.021996</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>0.116138</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>0.116136</v>
+      </c>
+      <c r="CL28" t="s"/>
+      <c r="CM28" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ28" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>79.6694737</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS28" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX28" t="n">
+        <v>0.554208971</v>
+      </c>
+      <c r="DY28" t="n">
+        <v>0.0261439492</v>
+      </c>
+      <c r="DZ28" t="n">
+        <v>0.0881431805</v>
+      </c>
+      <c r="EA28" t="n">
+        <v>0.000222738084</v>
+      </c>
+      <c r="EB28" t="n">
+        <v>0.0028307649</v>
+      </c>
+      <c r="EC28" t="n">
+        <v>0.000206913194</v>
+      </c>
+      <c r="ED28" t="n">
+        <v>0.0642934367</v>
+      </c>
+      <c r="EE28" t="n">
+        <v>0.240747865</v>
+      </c>
+      <c r="EF28" t="n">
+        <v>0.0232014908</v>
+      </c>
+      <c r="EG28" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ28" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK28" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL28" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER28" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="ES28" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET28" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU28" t="n">
+        <v>0.012044</v>
+      </c>
+      <c r="EV28" t="n">
+        <v>0.081385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:152">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R29" t="n">
+        <v>235</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.980232599</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0129264998</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0197631014</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.000920753689</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.366255326</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0375133713</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.935659064</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.0436570805</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.596231303</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.00675181187</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.163585855</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.89746255e-05</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.00385224127</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>235</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>50715.04</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0.110647</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0.057868</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0.014423</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0.035719</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.035719</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0.035704</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>0.100344</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0.102169</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0.102168</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0.021902</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>0.021902</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0.021902</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>0.115986</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>0.115984</v>
+      </c>
+      <c r="CL29" t="s"/>
+      <c r="CM29" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>79.670114</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS29" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX29" t="n">
+        <v>0.554230154</v>
+      </c>
+      <c r="DY29" t="n">
+        <v>0.0261449484</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>0.088143281</v>
+      </c>
+      <c r="EA29" t="n">
+        <v>0.000222746597</v>
+      </c>
+      <c r="EB29" t="n">
+        <v>0.00283063075</v>
+      </c>
+      <c r="EC29" t="n">
+        <v>0.000206921103</v>
+      </c>
+      <c r="ED29" t="n">
+        <v>0.06429589400000001</v>
+      </c>
+      <c r="EE29" t="n">
+        <v>0.240723186</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>0.0232015478</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ29" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK29" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER29" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="ES29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET29" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU29" t="n">
+        <v>0.011964</v>
+      </c>
+      <c r="EV29" t="n">
+        <v>0.08322599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:152">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R30" t="n">
+        <v>240</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.980232952</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.012926147</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0197631236</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.000920731545</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.366256297</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.0375110163</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.935660115</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.0436560299</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.596232687</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.00675181426</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.163579921</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.74368982e-05</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.00385223202</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>240</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>53038.09</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0.110523</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>0.057872</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0.014259</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0.035609</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.035609</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>0.035595</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>0.100244</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>0.102064</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0.102063</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0.021816</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>0.021816</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0.021816</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>0.115857</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0.115856</v>
+      </c>
+      <c r="CL30" t="s"/>
+      <c r="CM30" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU30" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW30" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD30" t="n">
+        <v>79.6707407</v>
+      </c>
+      <c r="DE30" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR30" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS30" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU30" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX30" t="n">
+        <v>0.554250887</v>
+      </c>
+      <c r="DY30" t="n">
+        <v>0.0261459265</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>0.0881433789</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>0.000222754929</v>
+      </c>
+      <c r="EB30" t="n">
+        <v>0.00283049942</v>
+      </c>
+      <c r="EC30" t="n">
+        <v>0.000206928843</v>
+      </c>
+      <c r="ED30" t="n">
+        <v>0.06429829920000001</v>
+      </c>
+      <c r="EE30" t="n">
+        <v>0.240699032</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>0.0232016034</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ30" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK30" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL30" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER30" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET30" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU30" t="n">
+        <v>0.011889</v>
+      </c>
+      <c r="EV30" t="n">
+        <v>0.084907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:152">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R31" t="n">
+        <v>245</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.9802332969999999</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0129258015</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0197631453</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.000920709859</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.366257247</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.03750871</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.935661144</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.043655001</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.596234042</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0067518166</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.163573576</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.59658532e-05</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.00385222299</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>245</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>55413.16</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>0.1104</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>0.057872</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>0.014104</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>0.035509</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0.035509</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>0.035495</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>0.100156</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>0.101971</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.101971</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0.021737</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>0.021737</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>0.021737</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>0.115743</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>0.115742</v>
+      </c>
+      <c r="CL31" t="s"/>
+      <c r="CM31" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ31" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD31" t="n">
+        <v>79.6713544</v>
+      </c>
+      <c r="DE31" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR31" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS31" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX31" t="n">
+        <v>0.5542711890000001</v>
+      </c>
+      <c r="DY31" t="n">
+        <v>0.0261468843</v>
+      </c>
+      <c r="DZ31" t="n">
+        <v>0.0881434742</v>
+      </c>
+      <c r="EA31" t="n">
+        <v>0.000222763089</v>
+      </c>
+      <c r="EB31" t="n">
+        <v>0.00283037082</v>
+      </c>
+      <c r="EC31" t="n">
+        <v>0.000206936423</v>
+      </c>
+      <c r="ED31" t="n">
+        <v>0.0643006545</v>
+      </c>
+      <c r="EE31" t="n">
+        <v>0.240675379</v>
+      </c>
+      <c r="EF31" t="n">
+        <v>0.0232016578</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH31" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ31" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK31" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL31" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER31" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="ES31" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET31" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU31" t="n">
+        <v>0.011819</v>
+      </c>
+      <c r="EV31" t="n">
+        <v>0.086442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:152">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R32" t="n">
+        <v>250</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.980233636</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.012925463</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0197631666</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.00092068861</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.366258179</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0375064506</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.935662152</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.0436539929</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.59623537</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.00675181889</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.163573003</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.45577426e-05</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.00385221416</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>250</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>57840.25</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>0.11028</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>0.057869</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>0.013958</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>0.035417</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>0.035417</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>0.035404</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>0.100077</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>0.10189</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>0.101889</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>0.021664</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>0.021664</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>0.021664</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>0.115642</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>0.115641</v>
+      </c>
+      <c r="CL32" t="s"/>
+      <c r="CM32" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD32" t="n">
+        <v>79.6719556</v>
+      </c>
+      <c r="DE32" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR32" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS32" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX32" t="n">
+        <v>0.554291079</v>
+      </c>
+      <c r="DY32" t="n">
+        <v>0.0261478226</v>
+      </c>
+      <c r="DZ32" t="n">
+        <v>0.08814356719999999</v>
+      </c>
+      <c r="EA32" t="n">
+        <v>0.000222771083</v>
+      </c>
+      <c r="EB32" t="n">
+        <v>0.00283024482</v>
+      </c>
+      <c r="EC32" t="n">
+        <v>0.000206943849</v>
+      </c>
+      <c r="ED32" t="n">
+        <v>0.0643029619</v>
+      </c>
+      <c r="EE32" t="n">
+        <v>0.240652208</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>0.023201711</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>0.011753</v>
+      </c>
+      <c r="EV32" t="n">
+        <v>0.08785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:152">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R33" t="n">
+        <v>255</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.980233968</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0129251312</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0197631875</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.000920667783</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.366259092</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0375042362</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.9356631399999999</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.0436530048</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.596236672</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.00675182114</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.163564752</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.32090929e-05</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.00385220553</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>255</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>60319.36</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>0.110169</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>0.057867</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>0.013819</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>0.035332</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>0.035332</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>0.035319</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>0.100007</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>0.101816</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0.101815</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>0.021597</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0.021597</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>0.021597</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>0.115551</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>0.11555</v>
+      </c>
+      <c r="CL33" t="s"/>
+      <c r="CM33" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD33" t="n">
+        <v>79.67254490000001</v>
+      </c>
+      <c r="DE33" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR33" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS33" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX33" t="n">
+        <v>0.554310572</v>
+      </c>
+      <c r="DY33" t="n">
+        <v>0.0261487422</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>0.08814365790000001</v>
+      </c>
+      <c r="EA33" t="n">
+        <v>0.000222778917</v>
+      </c>
+      <c r="EB33" t="n">
+        <v>0.00283012132</v>
+      </c>
+      <c r="EC33" t="n">
+        <v>0.000206951127</v>
+      </c>
+      <c r="ED33" t="n">
+        <v>0.06430522330000001</v>
+      </c>
+      <c r="EE33" t="n">
+        <v>0.2406295</v>
+      </c>
+      <c r="EF33" t="n">
+        <v>0.023201763</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH33" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ33" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK33" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL33" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER33" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="ES33" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET33" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU33" t="n">
+        <v>0.011691</v>
+      </c>
+      <c r="EV33" t="n">
+        <v>0.089146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:152">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R34" t="n">
+        <v>260</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.980234293</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0129248058</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0197632079</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.000920647361</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.366259987</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0375020649</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.935664109</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.0436520359</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.596237948</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.00675182334</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.163562782</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.25939835e-05</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.00385219708</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>260</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>62800.36</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>0.110077</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>0.057873</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>0.013686</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>0.03525</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>0.03525</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>0.035238</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>0.099936</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>0.101742</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0.101741</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>0.021533</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>0.021533</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>0.021533</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>0.11546</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>0.115459</v>
+      </c>
+      <c r="CL34" t="s"/>
+      <c r="CM34" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD34" t="n">
+        <v>79.6731226</v>
+      </c>
+      <c r="DE34" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR34" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS34" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX34" t="n">
+        <v>0.554329684</v>
+      </c>
+      <c r="DY34" t="n">
+        <v>0.0261496438</v>
+      </c>
+      <c r="DZ34" t="n">
+        <v>0.0881437464</v>
+      </c>
+      <c r="EA34" t="n">
+        <v>0.000222786598</v>
+      </c>
+      <c r="EB34" t="n">
+        <v>0.00283000023</v>
+      </c>
+      <c r="EC34" t="n">
+        <v>0.000206958262</v>
+      </c>
+      <c r="ED34" t="n">
+        <v>0.0643074404</v>
+      </c>
+      <c r="EE34" t="n">
+        <v>0.240607236</v>
+      </c>
+      <c r="EF34" t="n">
+        <v>0.0232018139</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH34" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ34" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK34" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL34" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER34" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="ES34" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET34" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU34" t="n">
+        <v>0.011631</v>
+      </c>
+      <c r="EV34" t="n">
+        <v>0.090338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:152">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R35" t="n">
+        <v>265</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.9802346119999999</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0129244867</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.019763228</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.000920627328</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.366260865</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.0374999352</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.935665059</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.0436510855</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.5962392</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0067518255</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.163561436</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.06775124e-05</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.00385218881</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>265</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>65433.64</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>0.109975</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>0.057869</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>0.013563</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>0.03518</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>0.03518</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>0.035168</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>0.099887</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>0.101689</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>0.101688</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>0.021476</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>0.021476</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>0.021476</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>0.115393</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>0.115392</v>
+      </c>
+      <c r="CL35" t="s"/>
+      <c r="CM35" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD35" t="n">
+        <v>79.67368930000001</v>
+      </c>
+      <c r="DE35" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR35" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS35" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX35" t="n">
+        <v>0.554348429</v>
+      </c>
+      <c r="DY35" t="n">
+        <v>0.0261505281</v>
+      </c>
+      <c r="DZ35" t="n">
+        <v>0.0881438328</v>
+      </c>
+      <c r="EA35" t="n">
+        <v>0.000222794132</v>
+      </c>
+      <c r="EB35" t="n">
+        <v>0.00282988145</v>
+      </c>
+      <c r="EC35" t="n">
+        <v>0.000206965261</v>
+      </c>
+      <c r="ED35" t="n">
+        <v>0.06430961509999999</v>
+      </c>
+      <c r="EE35" t="n">
+        <v>0.2405854</v>
+      </c>
+      <c r="EF35" t="n">
+        <v>0.0232018636</v>
+      </c>
+      <c r="EG35" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH35" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ35" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK35" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL35" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER35" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="ES35" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET35" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU35" t="n">
+        <v>0.011576</v>
+      </c>
+      <c r="EV35" t="n">
+        <v>0.09145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:152">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R36" t="n">
+        <v>270</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.980234925</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0129241735</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0197632477</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.00092060767</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.366261727</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0374978455</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.935665992</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.0436501528</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.596240428</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.00675182762</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.163554994</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.94888e-05</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.00385218071</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>270</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>68068.81</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>0.109884</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>0.057869</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>0.013444</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>0.035112</v>
+      </c>
+      <c r="CB36" t="n">
+        <v>0.035112</v>
+      </c>
+      <c r="CC36" t="n">
+        <v>0.035101</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>0.09983599999999999</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>0.101635</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>0.101634</v>
+      </c>
+      <c r="CG36" t="n">
+        <v>0.021421</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>0.021421</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>0.021421</v>
+      </c>
+      <c r="CJ36" t="n">
+        <v>0.115326</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>0.115325</v>
+      </c>
+      <c r="CL36" t="s"/>
+      <c r="CM36" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ36" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD36" t="n">
+        <v>79.6742453</v>
+      </c>
+      <c r="DE36" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR36" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS36" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU36" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX36" t="n">
+        <v>0.554366822</v>
+      </c>
+      <c r="DY36" t="n">
+        <v>0.0261513958</v>
+      </c>
+      <c r="DZ36" t="n">
+        <v>0.0881439172</v>
+      </c>
+      <c r="EA36" t="n">
+        <v>0.000222801524</v>
+      </c>
+      <c r="EB36" t="n">
+        <v>0.0028297649</v>
+      </c>
+      <c r="EC36" t="n">
+        <v>0.000206972128</v>
+      </c>
+      <c r="ED36" t="n">
+        <v>0.0643117488</v>
+      </c>
+      <c r="EE36" t="n">
+        <v>0.240563975</v>
+      </c>
+      <c r="EF36" t="n">
+        <v>0.0232019124</v>
+      </c>
+      <c r="EG36" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH36" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ36" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK36" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL36" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER36" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="ES36" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET36" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU36" t="n">
+        <v>0.011523</v>
+      </c>
+      <c r="EV36" t="n">
+        <v>0.092477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:152">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R37" t="n">
+        <v>275</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.980235233</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0129238661</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.019763267</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.000920588373</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.366262573</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0374957943</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.935666907</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.0436492373</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.596241633</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0067518297</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.163550824</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2.83479478e-05</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.00385217278</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>275</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>70756</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>0.109802</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>0.057872</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>0.013332</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>0.035048</v>
+      </c>
+      <c r="CB37" t="n">
+        <v>0.035048</v>
+      </c>
+      <c r="CC37" t="n">
+        <v>0.035037</v>
+      </c>
+      <c r="CD37" t="n">
+        <v>0.099789</v>
+      </c>
+      <c r="CE37" t="n">
+        <v>0.101585</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>0.101585</v>
+      </c>
+      <c r="CG37" t="n">
+        <v>0.02137</v>
+      </c>
+      <c r="CH37" t="n">
+        <v>0.02137</v>
+      </c>
+      <c r="CI37" t="n">
+        <v>0.02137</v>
+      </c>
+      <c r="CJ37" t="n">
+        <v>0.115263</v>
+      </c>
+      <c r="CK37" t="n">
+        <v>0.115262</v>
+      </c>
+      <c r="CL37" t="s"/>
+      <c r="CM37" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ37" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU37" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW37" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY37" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD37" t="n">
+        <v>79.674791</v>
+      </c>
+      <c r="DE37" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR37" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS37" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU37" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX37" t="n">
+        <v>0.554384874</v>
+      </c>
+      <c r="DY37" t="n">
+        <v>0.0261522474</v>
+      </c>
+      <c r="DZ37" t="n">
+        <v>0.0881439997</v>
+      </c>
+      <c r="EA37" t="n">
+        <v>0.000222808779</v>
+      </c>
+      <c r="EB37" t="n">
+        <v>0.00282965049</v>
+      </c>
+      <c r="EC37" t="n">
+        <v>0.000206978867</v>
+      </c>
+      <c r="ED37" t="n">
+        <v>0.0643138431</v>
+      </c>
+      <c r="EE37" t="n">
+        <v>0.240542947</v>
+      </c>
+      <c r="EF37" t="n">
+        <v>0.0232019602</v>
+      </c>
+      <c r="EG37" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH37" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ37" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK37" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL37" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER37" t="n">
+        <v>266</v>
+      </c>
+      <c r="ES37" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET37" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU37" t="n">
+        <v>0.011473</v>
+      </c>
+      <c r="EV37" t="n">
+        <v>0.093433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:152">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R38" t="n">
+        <v>280</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.980235535</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0129235642</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.019763286</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.000920569424</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.366263403</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0374937803</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.935667806</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.0436483383</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.596242817</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.00675183174</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.163546609</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.72525345e-05</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.00385216501</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>280</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>73495.21000000001</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>0.109722</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>0.057872</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>0.013224</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>0.034989</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>0.034989</v>
+      </c>
+      <c r="CC38" t="n">
+        <v>0.034979</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>0.099747</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>0.101541</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>0.10154</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>0.021322</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>0.021322</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>0.021322</v>
+      </c>
+      <c r="CJ38" t="n">
+        <v>0.115207</v>
+      </c>
+      <c r="CK38" t="n">
+        <v>0.115206</v>
+      </c>
+      <c r="CL38" t="s"/>
+      <c r="CM38" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN38" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ38" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU38" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW38" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY38" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>79.6753269</v>
+      </c>
+      <c r="DE38" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR38" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS38" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX38" t="n">
+        <v>0.554402599</v>
+      </c>
+      <c r="DY38" t="n">
+        <v>0.0261530836</v>
+      </c>
+      <c r="DZ38" t="n">
+        <v>0.0881440803</v>
+      </c>
+      <c r="EA38" t="n">
+        <v>0.000222815903</v>
+      </c>
+      <c r="EB38" t="n">
+        <v>0.00282953816</v>
+      </c>
+      <c r="EC38" t="n">
+        <v>0.000206985485</v>
+      </c>
+      <c r="ED38" t="n">
+        <v>0.06431589930000001</v>
+      </c>
+      <c r="EE38" t="n">
+        <v>0.2405223</v>
+      </c>
+      <c r="EF38" t="n">
+        <v>0.023202007</v>
+      </c>
+      <c r="EG38" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ38" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK38" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL38" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER38" t="n">
+        <v>271.1</v>
+      </c>
+      <c r="ES38" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET38" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU38" t="n">
+        <v>0.011425</v>
+      </c>
+      <c r="EV38" t="n">
+        <v>0.09432400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:152">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R39" t="n">
+        <v>285</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.980235831</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0129232677</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0197633047</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.00092055081</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.366264219</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.037491802</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.935668689</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.0436474552</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.596243979</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.00675183375</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.163541511</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.62002989e-05</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.00385215739</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>285</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>76286.44</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>0.109648</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>0.057874</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>0.013122</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>0.034933</v>
+      </c>
+      <c r="CB39" t="n">
+        <v>0.034933</v>
+      </c>
+      <c r="CC39" t="n">
+        <v>0.034923</v>
+      </c>
+      <c r="CD39" t="n">
+        <v>0.099708</v>
+      </c>
+      <c r="CE39" t="n">
+        <v>0.101499</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>0.101499</v>
+      </c>
+      <c r="CG39" t="n">
+        <v>0.021277</v>
+      </c>
+      <c r="CH39" t="n">
+        <v>0.021277</v>
+      </c>
+      <c r="CI39" t="n">
+        <v>0.021277</v>
+      </c>
+      <c r="CJ39" t="n">
+        <v>0.115155</v>
+      </c>
+      <c r="CK39" t="n">
+        <v>0.115155</v>
+      </c>
+      <c r="CL39" t="s"/>
+      <c r="CM39" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="CN39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ39" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD39" t="n">
+        <v>79.67585320000001</v>
+      </c>
+      <c r="DE39" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR39" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS39" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU39" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX39" t="n">
+        <v>0.554420009</v>
+      </c>
+      <c r="DY39" t="n">
+        <v>0.0261539049</v>
+      </c>
+      <c r="DZ39" t="n">
+        <v>0.08814415909999999</v>
+      </c>
+      <c r="EA39" t="n">
+        <v>0.0002228229</v>
+      </c>
+      <c r="EB39" t="n">
+        <v>0.00282942781</v>
+      </c>
+      <c r="EC39" t="n">
+        <v>0.000206991985</v>
+      </c>
+      <c r="ED39" t="n">
+        <v>0.064317919</v>
+      </c>
+      <c r="EE39" t="n">
+        <v>0.240502022</v>
+      </c>
+      <c r="EF39" t="n">
+        <v>0.0232020529</v>
+      </c>
+      <c r="EG39" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH39" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ39" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK39" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL39" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER39" t="n">
+        <v>276.2</v>
+      </c>
+      <c r="ES39" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET39" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU39" t="n">
+        <v>0.01138</v>
+      </c>
+      <c r="EV39" t="n">
+        <v>0.095156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:152">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R40" t="n">
+        <v>290</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.980236123</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0129229764</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.019763323</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.000920532521</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.36626502</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0374898583</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.935669557</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.0436465875</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.596245122</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.00675183572</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.163541193</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.4622012e-05</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.00385214992</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>290</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>79185.96000000001</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>0.109566</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>0.057869</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>0.013026</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>0.034884</v>
+      </c>
+      <c r="CB40" t="n">
+        <v>0.034884</v>
+      </c>
+      <c r="CC40" t="n">
+        <v>0.034874</v>
+      </c>
+      <c r="CD40" t="n">
+        <v>0.09968</v>
+      </c>
+      <c r="CE40" t="n">
+        <v>0.101469</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>0.101468</v>
+      </c>
+      <c r="CG40" t="n">
+        <v>0.021236</v>
+      </c>
+      <c r="CH40" t="n">
+        <v>0.021236</v>
+      </c>
+      <c r="CI40" t="n">
+        <v>0.021236</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>0.115116</v>
+      </c>
+      <c r="CK40" t="n">
+        <v>0.115115</v>
+      </c>
+      <c r="CL40" t="s"/>
+      <c r="CM40" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ40" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD40" t="n">
+        <v>79.6763704</v>
+      </c>
+      <c r="DE40" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR40" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS40" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU40" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX40" t="n">
+        <v>0.554437113</v>
+      </c>
+      <c r="DY40" t="n">
+        <v>0.0261547118</v>
+      </c>
+      <c r="DZ40" t="n">
+        <v>0.0881442363</v>
+      </c>
+      <c r="EA40" t="n">
+        <v>0.000222829774</v>
+      </c>
+      <c r="EB40" t="n">
+        <v>0.00282931939</v>
+      </c>
+      <c r="EC40" t="n">
+        <v>0.000206998371</v>
+      </c>
+      <c r="ED40" t="n">
+        <v>0.0643199032</v>
+      </c>
+      <c r="EE40" t="n">
+        <v>0.2404821</v>
+      </c>
+      <c r="EF40" t="n">
+        <v>0.0232020979</v>
+      </c>
+      <c r="EG40" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH40" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ40" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK40" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL40" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER40" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="ES40" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET40" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU40" t="n">
+        <v>0.011338</v>
+      </c>
+      <c r="EV40" t="n">
+        <v>0.095939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:152">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R41" t="n">
+        <v>295</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.980236409</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.01292269</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.019763341</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.000920514545</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.366265808</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.037487948</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.93567041</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.0436457346</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.596246244</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.00675183766</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.163533395</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.36652664e-05</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.00385214259</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>295</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>82082.25</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>0.109504</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>0.057873</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>0.012933</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>0.034834</v>
+      </c>
+      <c r="CB41" t="n">
+        <v>0.034834</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>0.034825</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>0.099647</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>0.101433</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>0.101433</v>
+      </c>
+      <c r="CG41" t="n">
+        <v>0.021197</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>0.021197</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>0.021197</v>
+      </c>
+      <c r="CJ41" t="n">
+        <v>0.115071</v>
+      </c>
+      <c r="CK41" t="n">
+        <v>0.11507</v>
+      </c>
+      <c r="CL41" t="s"/>
+      <c r="CM41" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="CN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ41" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU41" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW41" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY41" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD41" t="n">
+        <v>79.67687859999999</v>
+      </c>
+      <c r="DE41" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR41" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS41" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU41" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX41" t="n">
+        <v>0.554453923</v>
+      </c>
+      <c r="DY41" t="n">
+        <v>0.0261555048</v>
+      </c>
+      <c r="DZ41" t="n">
+        <v>0.08814431170000001</v>
+      </c>
+      <c r="EA41" t="n">
+        <v>0.00022283653</v>
+      </c>
+      <c r="EB41" t="n">
+        <v>0.00282921284</v>
+      </c>
+      <c r="EC41" t="n">
+        <v>0.000207004647</v>
+      </c>
+      <c r="ED41" t="n">
+        <v>0.0643218534</v>
+      </c>
+      <c r="EE41" t="n">
+        <v>0.24046252</v>
+      </c>
+      <c r="EF41" t="n">
+        <v>0.023202142</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ41" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK41" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL41" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER41" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="ES41" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET41" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU41" t="n">
+        <v>0.011297</v>
+      </c>
+      <c r="EV41" t="n">
+        <v>0.096669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:152">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.00051099893</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.105658372</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="R42" t="n">
+        <v>300</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.980236691</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0129224085</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0197633587</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.000920496871</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.366266582</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.03748607</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.935671248</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.0436448961</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.596247348</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.00675183957</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.163527247</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.16637e-05</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.32821853e-05</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.0038521354</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>300</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>84972.25</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>0.109451</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>0.05788</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>0.012844</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>0.034786</v>
+      </c>
+      <c r="CB42" t="n">
+        <v>0.034786</v>
+      </c>
+      <c r="CC42" t="n">
+        <v>0.034777</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>0.09961100000000001</v>
+      </c>
+      <c r="CE42" t="n">
+        <v>0.101396</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>0.101395</v>
+      </c>
+      <c r="CG42" t="n">
+        <v>0.021158</v>
+      </c>
+      <c r="CH42" t="n">
+        <v>0.021158</v>
+      </c>
+      <c r="CI42" t="n">
+        <v>0.021158</v>
+      </c>
+      <c r="CJ42" t="n">
+        <v>0.115024</v>
+      </c>
+      <c r="CK42" t="n">
+        <v>0.115024</v>
+      </c>
+      <c r="CL42" t="s"/>
+      <c r="CM42" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="CN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ42" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD42" t="n">
+        <v>79.67737820000001</v>
+      </c>
+      <c r="DE42" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DF42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR42" t="n">
+        <v>91.1887</v>
+      </c>
+      <c r="DS42" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="DT42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DW42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DX42" t="n">
+        <v>0.554470449</v>
+      </c>
+      <c r="DY42" t="n">
+        <v>0.0261562844</v>
+      </c>
+      <c r="DZ42" t="n">
+        <v>0.0881443856</v>
+      </c>
+      <c r="EA42" t="n">
+        <v>0.000222843172</v>
+      </c>
+      <c r="EB42" t="n">
+        <v>0.00282910807</v>
+      </c>
+      <c r="EC42" t="n">
+        <v>0.000207010817</v>
+      </c>
+      <c r="ED42" t="n">
+        <v>0.0643237705</v>
+      </c>
+      <c r="EE42" t="n">
+        <v>0.240443273</v>
+      </c>
+      <c r="EF42" t="n">
+        <v>0.0232021853</v>
+      </c>
+      <c r="EG42" t="n">
+        <v>124.891473</v>
+      </c>
+      <c r="EH42" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ42" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="EK42" t="n">
+        <v>1.77669</v>
+      </c>
+      <c r="EL42" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="EM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER42" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="ES42" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="ET42" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="EU42" t="n">
+        <v>0.011258</v>
+      </c>
+      <c r="EV42" t="n">
+        <v>0.09735000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
